--- a/莆田项目部公共开支明细表数据库版本-林迪南.xlsx
+++ b/莆田项目部公共开支明细表数据库版本-林迪南.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">莆田维养项目部签到表!$B$1:$B$93</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">人员固定消费表!$A$1:$F$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="142">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,6 +580,18 @@
   </si>
   <si>
     <t>莆田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南、吴紫东、郑景祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林迪南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1702,6 +1714,24 @@
         <v>137</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>20170509</v>
+      </c>
+      <c r="C43">
+        <f>15+25.4+10+12+9.9</f>
+        <v>72.3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1711,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2382,6 +2412,20 @@
       <c r="D42">
         <f>33+9+12.4+10+43</f>
         <v>107.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20170509</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="4">
+        <v>72.3</v>
       </c>
     </row>
   </sheetData>
